--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2755083.822221172</v>
+        <v>-2758013.220844078</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56.5699535948969</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>83.72603862143535</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77.5790220081107</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.90654131712952</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>121.9898132645954</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>98.48470247599158</v>
       </c>
       <c r="X4" t="n">
-        <v>98.48470247599158</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361573</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>72.36698404190659</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.269669440632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>100.0772551557914</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.6934725236132</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135151</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.8593000076455</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0228413627509</v>
+        <v>279.6767186501203</v>
       </c>
       <c r="I8" t="n">
-        <v>77.72276506291291</v>
+        <v>77.72276506291297</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.552737384326</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0701779072373</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>21.06377574666287</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5011156704062</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19.6205210204261</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96307268248953</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.4613714458251</v>
+        <v>137.4613714458252</v>
       </c>
       <c r="T9" t="n">
         <v>192.7385577654914</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.8422204653524</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1775716917548</v>
+        <v>197.0983015068564</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3459027464064</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2347780371478</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>6.004748035886214</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541839</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652592</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972046</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.7563920345884</v>
+        <v>76.326003118893</v>
       </c>
       <c r="C2" t="n">
-        <v>103.7563920345884</v>
+        <v>76.326003118893</v>
       </c>
       <c r="D2" t="n">
-        <v>103.7563920345884</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E2" t="n">
-        <v>103.7563920345884</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F2" t="n">
-        <v>103.7563920345884</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G2" t="n">
-        <v>103.7563920345884</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>103.7563920345884</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
@@ -4358,22 +4358,22 @@
         <v>803.0167550628461</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305571</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="U2" t="n">
-        <v>588.2168933305571</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="V2" t="n">
-        <v>345.9866426825728</v>
+        <v>560.7865044148617</v>
       </c>
       <c r="W2" t="n">
-        <v>345.9866426825728</v>
+        <v>560.7865044148617</v>
       </c>
       <c r="X2" t="n">
-        <v>345.9866426825728</v>
+        <v>318.5562537668774</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9866426825728</v>
+        <v>318.5562537668774</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.54728434436149</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C3" t="n">
-        <v>97.54728434436149</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>97.54728434436149</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
         <v>19.18463585132036</v>
@@ -4431,28 +4431,28 @@
         <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>940.134276084069</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S3" t="n">
-        <v>940.134276084069</v>
+        <v>809.7650034286528</v>
       </c>
       <c r="T3" t="n">
-        <v>743.1449802441566</v>
+        <v>612.7757075887404</v>
       </c>
       <c r="U3" t="n">
-        <v>743.1449802441566</v>
+        <v>384.6369200999061</v>
       </c>
       <c r="V3" t="n">
-        <v>507.9928720124138</v>
+        <v>384.6369200999061</v>
       </c>
       <c r="W3" t="n">
-        <v>265.7626213644295</v>
+        <v>142.4066694519218</v>
       </c>
       <c r="X3" t="n">
-        <v>265.7626213644295</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="Y3" t="n">
-        <v>265.7626213644295</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="4">
@@ -4525,7 +4525,7 @@
         <v>118.6641333018169</v>
       </c>
       <c r="W4" t="n">
-        <v>118.6641333018169</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="X4" t="n">
         <v>19.18463585132036</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4565,22 +4565,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U5" t="n">
-        <v>646.859700735818</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="V5" t="n">
-        <v>573.7617370571245</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151038</v>
       </c>
     </row>
     <row r="6">
@@ -4668,25 +4668,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374624</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742759</v>
+        <v>611.5747118810663</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493235</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211219</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
         <v>21.0971104001205</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,25 +4747,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983347</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.256897008846</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073725</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014857</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y7" t="n">
         <v>21.0971104001205</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.722640892995</v>
+        <v>1185.888324869808</v>
       </c>
       <c r="C8" t="n">
-        <v>706.7601239525829</v>
+        <v>1185.888324869808</v>
       </c>
       <c r="D8" t="n">
-        <v>706.7601239525829</v>
+        <v>827.6226262630571</v>
       </c>
       <c r="E8" t="n">
-        <v>706.7601239525829</v>
+        <v>827.6226262630571</v>
       </c>
       <c r="F8" t="n">
-        <v>699.8146232033795</v>
+        <v>820.6771255138536</v>
       </c>
       <c r="G8" t="n">
-        <v>283.7951282461618</v>
+        <v>404.657630556636</v>
       </c>
       <c r="H8" t="n">
         <v>122.1558945464134</v>
       </c>
       <c r="I8" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="J8" t="n">
-        <v>153.7474851768852</v>
+        <v>153.7474851768848</v>
       </c>
       <c r="K8" t="n">
-        <v>369.4965148472522</v>
+        <v>369.4965148472514</v>
       </c>
       <c r="L8" t="n">
-        <v>674.0540258454989</v>
+        <v>674.054025845498</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.602376225113</v>
+        <v>1044.602376225111</v>
       </c>
       <c r="N8" t="n">
-        <v>1425.760394689075</v>
+        <v>1425.760394689074</v>
       </c>
       <c r="O8" t="n">
-        <v>1772.341841908244</v>
+        <v>1772.341841908242</v>
       </c>
       <c r="P8" t="n">
-        <v>2033.640087805678</v>
+        <v>2033.640087805676</v>
       </c>
       <c r="Q8" t="n">
-        <v>2181.691441845523</v>
+        <v>2181.691441845519</v>
       </c>
       <c r="R8" t="n">
-        <v>2182.402552426077</v>
+        <v>2182.402552426074</v>
       </c>
       <c r="S8" t="n">
-        <v>2050.531100522718</v>
+        <v>2182.402552426074</v>
       </c>
       <c r="T8" t="n">
-        <v>2050.531100522718</v>
+        <v>2182.402552426074</v>
       </c>
       <c r="U8" t="n">
-        <v>1796.924860212377</v>
+        <v>1928.796312115733</v>
       </c>
       <c r="V8" t="n">
-        <v>1465.861972868806</v>
+        <v>1928.796312115733</v>
       </c>
       <c r="W8" t="n">
-        <v>1465.861972868806</v>
+        <v>1576.027656845619</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.861972868806</v>
+        <v>1576.027656845619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.722640892995</v>
+        <v>1185.888324869808</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.5494861546038</v>
+        <v>547.5494861546006</v>
       </c>
       <c r="C9" t="n">
-        <v>373.0964568734768</v>
+        <v>373.0964568734736</v>
       </c>
       <c r="D9" t="n">
-        <v>373.0964568734768</v>
+        <v>224.1620472122223</v>
       </c>
       <c r="E9" t="n">
-        <v>373.0964568734768</v>
+        <v>64.92459220676682</v>
       </c>
       <c r="F9" t="n">
-        <v>226.5618989003617</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="G9" t="n">
-        <v>89.69208509187067</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87337699043016</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="I9" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="J9" t="n">
-        <v>90.40467280174917</v>
+        <v>90.40467280174903</v>
       </c>
       <c r="K9" t="n">
-        <v>248.4740113880813</v>
+        <v>248.4740113880811</v>
       </c>
       <c r="L9" t="n">
-        <v>507.3402852405324</v>
+        <v>507.3402852405319</v>
       </c>
       <c r="M9" t="n">
-        <v>828.7818850652807</v>
+        <v>828.78188506528</v>
       </c>
       <c r="N9" t="n">
         <v>1173.139732473805</v>
       </c>
       <c r="O9" t="n">
-        <v>1465.940091887674</v>
+        <v>1465.940091887673</v>
       </c>
       <c r="P9" t="n">
-        <v>1866.088523000471</v>
+        <v>1866.088523000468</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.312206584481</v>
+        <v>2168.312206584478</v>
       </c>
       <c r="R9" t="n">
-        <v>2182.402552426077</v>
+        <v>2182.402552426074</v>
       </c>
       <c r="S9" t="n">
-        <v>2043.552682278779</v>
+        <v>2043.552682278776</v>
       </c>
       <c r="T9" t="n">
-        <v>1848.867270394444</v>
+        <v>1848.867270394441</v>
       </c>
       <c r="U9" t="n">
-        <v>1620.766087105103</v>
+        <v>1620.7660871051</v>
       </c>
       <c r="V9" t="n">
-        <v>1385.61397887336</v>
+        <v>1385.613978873357</v>
       </c>
       <c r="W9" t="n">
-        <v>1131.376622145159</v>
+        <v>1131.376622145155</v>
       </c>
       <c r="X9" t="n">
-        <v>923.5251219396257</v>
+        <v>923.5251219396225</v>
       </c>
       <c r="Y9" t="n">
-        <v>715.7648231746718</v>
+        <v>715.7648231746687</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="C10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="D10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="E10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="F10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="G10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="H10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="I10" t="n">
-        <v>43.64805104852154</v>
+        <v>43.64805104852149</v>
       </c>
       <c r="J10" t="n">
-        <v>59.33417697065991</v>
+        <v>59.33417697065981</v>
       </c>
       <c r="K10" t="n">
-        <v>214.9481371618009</v>
+        <v>214.9481371618007</v>
       </c>
       <c r="L10" t="n">
-        <v>469.60686479809</v>
+        <v>469.6068647980898</v>
       </c>
       <c r="M10" t="n">
-        <v>748.4979103967289</v>
+        <v>748.4979103967286</v>
       </c>
       <c r="N10" t="n">
         <v>1026.192166705022</v>
       </c>
       <c r="O10" t="n">
-        <v>1266.671463009061</v>
+        <v>1266.67146300906</v>
       </c>
       <c r="P10" t="n">
-        <v>1448.922362850474</v>
+        <v>1448.922362850473</v>
       </c>
       <c r="Q10" t="n">
-        <v>1491.668358938708</v>
+        <v>1491.668358938707</v>
       </c>
       <c r="R10" t="n">
-        <v>1382.73682311512</v>
+        <v>1491.668358938707</v>
       </c>
       <c r="S10" t="n">
-        <v>1248.214023426479</v>
+        <v>1292.579165497438</v>
       </c>
       <c r="T10" t="n">
-        <v>1024.632303480613</v>
+        <v>1292.579165497438</v>
       </c>
       <c r="U10" t="n">
-        <v>735.506265059252</v>
+        <v>1003.453127076077</v>
       </c>
       <c r="V10" t="n">
-        <v>735.506265059252</v>
+        <v>748.7686388701899</v>
       </c>
       <c r="W10" t="n">
-        <v>446.0890950222914</v>
+        <v>459.3514688332293</v>
       </c>
       <c r="X10" t="n">
-        <v>446.0890950222914</v>
+        <v>231.3619179352119</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.2965158787613</v>
+        <v>225.2965158787612</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,19 +6160,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150022</v>
@@ -6370,25 +6370,25 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,16 +6403,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942654</v>
@@ -6616,28 +6616,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,22 +6953,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580116</v>
@@ -7090,13 +7090,13 @@
         <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,52 +7640,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>186.3468638290665</v>
+        <v>186.3468638290646</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22547,16 +22547,16 @@
         <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.2652449454292</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>298.1130880257861</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>129.9231525369645</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.06605844729025</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>46.45270651659249</v>
       </c>
       <c r="V4" t="n">
         <v>12.32969518232349</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>188.0382958605994</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1127790.720189972</v>
+        <v>1127790.720189973</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395223</v>
+        <v>26462.50553395224</v>
       </c>
       <c r="D3" t="n">
-        <v>295242.9353806627</v>
+        <v>295242.9353806622</v>
       </c>
       <c r="E3" t="n">
-        <v>598117.2478930197</v>
+        <v>598117.2478930202</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353582</v>
+        <v>62744.31078353579</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944914</v>
+        <v>6152.621870944987</v>
       </c>
       <c r="L3" t="n">
-        <v>71343.00149555586</v>
+        <v>71343.0014955556</v>
       </c>
       <c r="M3" t="n">
-        <v>156277.7348088878</v>
+        <v>156277.734808888</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>169584.7723925419</v>
+        <v>169584.7723925422</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="J4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.77944491166</v>
       </c>
       <c r="K4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491167</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
         <v>20377.7794449116</v>
@@ -26457,7 +26457,7 @@
         <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491166</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>85473.01954061561</v>
+        <v>85473.01954061558</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-867612.0160147374</v>
+        <v>-868076.3128067619</v>
       </c>
       <c r="C6" t="n">
-        <v>-342527.0736455536</v>
+        <v>-342527.0736455537</v>
       </c>
       <c r="D6" t="n">
-        <v>-550300.7273138203</v>
+        <v>-550300.7273138199</v>
       </c>
       <c r="E6" t="n">
-        <v>-711626.6978987448</v>
+        <v>-711661.435824181</v>
       </c>
       <c r="F6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="G6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="H6" t="n">
-        <v>-113509.4500057253</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="I6" t="n">
         <v>-142969.6132924588</v>
       </c>
       <c r="J6" t="n">
-        <v>-186286.2060823628</v>
+        <v>-186286.2060823629</v>
       </c>
       <c r="K6" t="n">
-        <v>-129694.5171697719</v>
+        <v>-129694.517169772</v>
       </c>
       <c r="L6" t="n">
-        <v>-194884.8967943829</v>
+        <v>-194884.8967943827</v>
       </c>
       <c r="M6" t="n">
-        <v>-279819.6301077147</v>
+        <v>-279819.630107715</v>
       </c>
       <c r="N6" t="n">
-        <v>-142969.6132924589</v>
+        <v>-142969.6132924588</v>
       </c>
       <c r="O6" t="n">
         <v>-123541.895298827</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="J2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="K2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>856.5550799880391</v>
+        <v>856.5550799880388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>545.6006381065193</v>
+        <v>545.6006381065185</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>20.57891343141375</v>
       </c>
       <c r="D3" t="n">
-        <v>242.5000662185607</v>
+        <v>242.5000662185604</v>
       </c>
       <c r="E3" t="n">
-        <v>511.4204203536347</v>
+        <v>511.420420353635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000174</v>
       </c>
       <c r="D4" t="n">
-        <v>281.8867581050131</v>
+        <v>281.8867581050122</v>
       </c>
       <c r="E4" t="n">
-        <v>627.107649993129</v>
+        <v>627.1076499931298</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415043</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000197</v>
       </c>
       <c r="L4" t="n">
-        <v>281.8867581050131</v>
+        <v>281.886758105012</v>
       </c>
       <c r="M4" t="n">
-        <v>627.107649993129</v>
+        <v>627.1076499931301</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000174</v>
       </c>
       <c r="L4" t="n">
-        <v>281.8867581050131</v>
+        <v>281.8867581050122</v>
       </c>
       <c r="M4" t="n">
-        <v>627.107649993129</v>
+        <v>627.1076499931298</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>253.0076468255783</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.77000227245502</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.994239284705628</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>11.88703501941509</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>83.78317193888209</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659249</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>127.2249529130456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886461</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>255.3852744282283</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879328</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>105.6957300476861</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005071</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752395</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>144.1868563794383</v>
+        <v>24.53297909206896</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.552737384326</v>
       </c>
       <c r="T8" t="n">
         <v>208.0222018750956</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>124.005436646721</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5011156704062</v>
       </c>
       <c r="H9" t="n">
-        <v>74.82120353556412</v>
+        <v>94.44172455599022</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.96307268248955</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.8422204653525</v>
       </c>
       <c r="S10" t="n">
-        <v>63.92072981510151</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3459027464064</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>212.5799053162086</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.443437507489602</v>
+        <v>3.4434375074896</v>
       </c>
       <c r="H8" t="n">
-        <v>35.26510437357789</v>
+        <v>35.26510437357788</v>
       </c>
       <c r="I8" t="n">
-        <v>132.753124507493</v>
+        <v>132.7531245074929</v>
       </c>
       <c r="J8" t="n">
-        <v>292.2574541512959</v>
+        <v>292.2574541512957</v>
       </c>
       <c r="K8" t="n">
-        <v>438.0181638433308</v>
+        <v>438.0181638433306</v>
       </c>
       <c r="L8" t="n">
-        <v>543.4002644631659</v>
+        <v>543.4002644631656</v>
       </c>
       <c r="M8" t="n">
-        <v>604.637496236984</v>
+        <v>604.6374962369838</v>
       </c>
       <c r="N8" t="n">
-        <v>614.4211630551389</v>
+        <v>614.4211630551387</v>
       </c>
       <c r="O8" t="n">
-        <v>580.1804813400391</v>
+        <v>580.1804813400389</v>
       </c>
       <c r="P8" t="n">
-        <v>495.1706178738895</v>
+        <v>495.1706178738893</v>
       </c>
       <c r="Q8" t="n">
-        <v>371.852512136918</v>
+        <v>371.8525121369178</v>
       </c>
       <c r="R8" t="n">
-        <v>216.3038313298439</v>
+        <v>216.3038313298438</v>
       </c>
       <c r="S8" t="n">
-        <v>78.46733220191938</v>
+        <v>78.46733220191935</v>
       </c>
       <c r="T8" t="n">
-        <v>15.07364768903574</v>
+        <v>15.07364768903573</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2754750005991681</v>
+        <v>0.275475000599168</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.842401492804461</v>
       </c>
       <c r="H9" t="n">
-        <v>17.79371968050625</v>
+        <v>17.79371968050624</v>
       </c>
       <c r="I9" t="n">
-        <v>63.43356016892555</v>
+        <v>63.43356016892552</v>
       </c>
       <c r="J9" t="n">
-        <v>174.0665375285128</v>
+        <v>174.0665375285127</v>
       </c>
       <c r="K9" t="n">
-        <v>297.5074375464117</v>
+        <v>297.5074375464116</v>
       </c>
       <c r="L9" t="n">
-        <v>400.0354644793196</v>
+        <v>400.0354644793194</v>
       </c>
       <c r="M9" t="n">
-        <v>466.8225185934812</v>
+        <v>466.822518593481</v>
       </c>
       <c r="N9" t="n">
-        <v>479.1779215868937</v>
+        <v>479.1779215868935</v>
       </c>
       <c r="O9" t="n">
-        <v>438.3541832463317</v>
+        <v>438.3541832463315</v>
       </c>
       <c r="P9" t="n">
-        <v>351.8178780426344</v>
+        <v>351.8178780426343</v>
       </c>
       <c r="Q9" t="n">
-        <v>235.1809344148292</v>
+        <v>235.1809344148291</v>
       </c>
       <c r="R9" t="n">
         <v>114.3905067199121</v>
       </c>
       <c r="S9" t="n">
-        <v>34.22179965801267</v>
+        <v>34.22179965801266</v>
       </c>
       <c r="T9" t="n">
-        <v>7.426170929330261</v>
+        <v>7.426170929330258</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1212106245266094</v>
+        <v>0.1212106245266093</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.544607521289906</v>
       </c>
       <c r="H10" t="n">
-        <v>13.732965052923</v>
+        <v>13.73296505292299</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45056073115465</v>
+        <v>46.45056073115464</v>
       </c>
       <c r="J10" t="n">
-        <v>109.2037517551964</v>
+        <v>109.2037517551963</v>
       </c>
       <c r="K10" t="n">
         <v>179.4553102007727</v>
       </c>
       <c r="L10" t="n">
-        <v>229.6410127561376</v>
+        <v>229.6410127561375</v>
       </c>
       <c r="M10" t="n">
-        <v>242.1242499054714</v>
+        <v>242.1242499054713</v>
       </c>
       <c r="N10" t="n">
-        <v>236.3670764170274</v>
+        <v>236.3670764170273</v>
       </c>
       <c r="O10" t="n">
-        <v>218.3232521910498</v>
+        <v>218.3232521910497</v>
       </c>
       <c r="P10" t="n">
         <v>186.8132587567355</v>
       </c>
       <c r="Q10" t="n">
-        <v>129.3398170781939</v>
+        <v>129.3398170781938</v>
       </c>
       <c r="R10" t="n">
-        <v>69.45117091181704</v>
+        <v>69.45117091181702</v>
       </c>
       <c r="S10" t="n">
-        <v>26.91829653011591</v>
+        <v>26.9182965301159</v>
       </c>
       <c r="T10" t="n">
-        <v>6.599686681875053</v>
+        <v>6.59968668187505</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0842513193430859</v>
+        <v>0.08425131934308587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>754.000239683233</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2115496246096</v>
+        <v>111.2115496246095</v>
       </c>
       <c r="K8" t="n">
-        <v>217.9283127983502</v>
+        <v>217.9283127983501</v>
       </c>
       <c r="L8" t="n">
-        <v>307.6338494931786</v>
+        <v>307.6338494931784</v>
       </c>
       <c r="M8" t="n">
-        <v>374.2912630097113</v>
+        <v>374.2912630097111</v>
       </c>
       <c r="N8" t="n">
-        <v>385.008099458548</v>
+        <v>385.0080994585477</v>
       </c>
       <c r="O8" t="n">
-        <v>350.0822699183524</v>
+        <v>350.0822699183522</v>
       </c>
       <c r="P8" t="n">
-        <v>263.9376221186199</v>
+        <v>263.9376221186197</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.5468222624685</v>
+        <v>149.5468222624683</v>
       </c>
       <c r="R8" t="n">
-        <v>0.718293515711764</v>
+        <v>0.7182935157116788</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>47.22891086184609</v>
+        <v>47.228910861846</v>
       </c>
       <c r="K9" t="n">
-        <v>159.6659985720527</v>
+        <v>159.6659985720526</v>
       </c>
       <c r="L9" t="n">
-        <v>261.4810846994454</v>
+        <v>261.4810846994453</v>
       </c>
       <c r="M9" t="n">
-        <v>324.6884846714629</v>
+        <v>324.6884846714627</v>
       </c>
       <c r="N9" t="n">
-        <v>347.8362095035604</v>
+        <v>347.8362095035602</v>
       </c>
       <c r="O9" t="n">
-        <v>295.7579388018872</v>
+        <v>295.7579388018871</v>
       </c>
       <c r="P9" t="n">
-        <v>404.1903344573707</v>
+        <v>404.1903344573686</v>
       </c>
       <c r="Q9" t="n">
         <v>305.2764480646567</v>
       </c>
       <c r="R9" t="n">
-        <v>14.23267256726901</v>
+        <v>14.23267256726896</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.8445716385236</v>
+        <v>15.84457163852356</v>
       </c>
       <c r="K10" t="n">
-        <v>157.1858183748899</v>
+        <v>157.1858183748898</v>
       </c>
       <c r="L10" t="n">
-        <v>257.2310380164537</v>
+        <v>257.2310380164536</v>
       </c>
       <c r="M10" t="n">
-        <v>281.708126867312</v>
+        <v>281.7081268673119</v>
       </c>
       <c r="N10" t="n">
-        <v>280.499248796256</v>
+        <v>280.4992487962559</v>
       </c>
       <c r="O10" t="n">
-        <v>242.9083801050894</v>
+        <v>242.9083801050893</v>
       </c>
       <c r="P10" t="n">
-        <v>184.091818021629</v>
+        <v>184.0918180216289</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.17777382649952</v>
+        <v>43.17777382649946</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998997</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
